--- a/PolicyEffectiveness/0-DayLag_AlaskaPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_AlaskaPolicy.xlsx
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -5117,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5453,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -5509,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -5733,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -5901,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -5957,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -6069,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -6293,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -6349,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -6405,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -6461,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -6629,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -6741,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -6853,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -7301,7 +7301,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -7357,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -7525,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -7581,7 +7581,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -7693,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -7861,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -7973,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -8029,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -8085,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -8197,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -8421,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -8477,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -8533,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -8645,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -9149,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -9205,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -9541,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -9597,7 +9597,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -9821,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -10101,7 +10101,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -10213,7 +10213,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -10325,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -10549,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -10717,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
